--- a/InputFiles/TC14_CDS_Filter_FileType-XLSX.xlsx
+++ b/InputFiles/TC14_CDS_Filter_FileType-XLSX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC23FEC-C0DA-410B-A43A-F0164AFCAAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAD247B-8C06-4C79-8FFB-74F0A1434A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -61,35 +61,6 @@
   </si>
   <si>
     <t>TC14_CDS_Filter_FileType-XLSX_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)
-WHERE f.file_type in ['XLSX']
-MATCH (f)--&gt;(:sample)--&gt;(p:participant)--&gt;(s:study)
-MATCH (samp:sample)--&gt;(p)
-WITH p, s, collect(distinct samp.sample_id) as samp
-RETURN 
-    coalesce(p.participant_id,'') as `Participant ID`,
-    coalesce(s.study_name, '') as `Study Name`,
-    coalesce(s.phs_accession,'') as `Accession`,
-    coalesce(p.gender,'') as `Gender`,
-    coalesce(apoc.text.join(samp, ','), '') as `Samples`
-ORDER BY `Participant ID`
-LIMIT 100</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
-MATCH (samp)&lt;--(f:file)
-WHERE f.file_type in ['XLSX']
-WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
-RETURN  
- coalesce(samp.sample_id, '') as `Sample ID`,
- coalesce(p.participant_id,'') as `Participant ID`,
- coalesce(s.study_name, '') as `Study Name`,
- coalesce(s.phs_accession,'') as `Accession`,
- coalesce(samp.sample_tumor_status,'') as `Tumor`,
-coalesce(samp.sample_type,'') as `Analyte Type`
-ORDER By samp.sample_id LIMIT 100</t>
   </si>
   <si>
     <t>CALL{
@@ -135,13 +106,49 @@
     num_files AS `Files`</t>
   </si>
   <si>
+    <t>MATCH (p:participant)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp)&lt;--(f:file)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+WITH s, p, samp, f, g, diag
+WHERE f.file_type in ['XLSX']
+OPTIONAL MATCH (p)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+WITH s, p, apoc.coll.sort(collect(distinct samp.sample_id)) as samp
+RETURN 
+coalesce(p.participant_id,'') as `Participant ID`,
+coalesce(s.study_name, '') as `Study Name`,
+coalesce(s.phs_accession,'') as `Accession`,
+coalesce(p.gender,'') as `Gender`,
+coalesce(apoc.text.join(samp, ','), '') as `Samples`
+ORDER BY p.participant_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (samp:sample)--&gt;(p:participant)--&gt;(s:study)
+OPTIONAL MATCH (samp)&lt;--(f:file)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+WITH s, p, samp, f, g, diag
+WHERE f.file_type in ['XLSX']
+WITH DISTINCT s, p, samp
+RETURN
+    coalesce(samp.sample_id, '') as `Sample ID`,
+    coalesce(p.participant_id,'') as `Participant ID`,
+    coalesce(s.study_name, '') as `Study Name`,
+    coalesce(s.phs_accession,'') as `Accession`,
+    coalesce(samp.sample_tumor_status,'') as `Tumor`,
+    coalesce(samp.sample_type,'') as `Analyte Type`
+ORDER BY samp.sample_id </t>
+  </si>
+  <si>
     <t>MATCH (f:file)--&gt;(s:study)
 OPTIONAL MATCH (samp:sample)&lt;--(f)
 OPTIONAL MATCH (samp)--&gt;(p:participant)
 OPTIONAL MATCH (f)&lt;--(g:genomic_info)
 OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
 WITH s, p, samp, f, g, diag
-WHERE  f.file_type in ['XLSX']
+WHERE f.file_type in ['XLSX']
 WITH DISTINCT f, s, p, samp
 RETURN
     coalesce(f.file_name, '') as `File Name`,
@@ -533,7 +540,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,10 +573,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -583,10 +590,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -603,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
